--- a/HTML/Food Category Algorithm.xlsx
+++ b/HTML/Food Category Algorithm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="11240" yWindow="40" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,49 +90,49 @@
     <t>Wineries (wineries)</t>
   </si>
   <si>
-    <t>breakfast and eggs</t>
-  </si>
-  <si>
-    <t>bar</t>
-  </si>
-  <si>
-    <t>burgers and sandwiches</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>desserts</t>
-  </si>
-  <si>
-    <t>japanese</t>
-  </si>
-  <si>
-    <t>mediterranean</t>
-  </si>
-  <si>
-    <t>North Indian</t>
-  </si>
-  <si>
-    <t>pizza and pasta</t>
-  </si>
-  <si>
-    <t>South Indian</t>
-  </si>
-  <si>
-    <t>Tacos</t>
-  </si>
-  <si>
-    <t>thai</t>
-  </si>
-  <si>
-    <t>waffles</t>
-  </si>
-  <si>
-    <t>wings and steak</t>
+    <t>http://i.imgur.com/J1z6RmU.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/CMlm55G.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/dfBiaXU.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/L92xI9r.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/nHafpWN.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/paiXVav.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/KcKx9uU.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/BcSOopC.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/aYmB3eU.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/aeX8Kr5.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/kce5iiI.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/RJaGjt3.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/61huDTZ.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/0z6FxH8.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/3OwIMcT.jpg</t>
   </si>
 </sst>
 </file>
@@ -538,10 +538,10 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.375" defaultRowHeight="47" customHeight="1" x14ac:dyDescent="0"/>
@@ -623,7 +623,7 @@
     </row>
     <row r="2" spans="1:23" ht="47" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="3" spans="1:23" ht="47" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
